--- a/opm_hero_property/heroes/97.xlsx
+++ b/opm_hero_property/heroes/97.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11109</v>
       </c>
       <c r="D4" t="n">
-        <v>11109</v>
+        <v>11758</v>
       </c>
       <c r="E4" t="n">
         <v>238</v>
@@ -1304,7 +1305,7 @@
         <v>12365</v>
       </c>
       <c r="D5" t="n">
-        <v>12365</v>
+        <v>13751</v>
       </c>
       <c r="E5" t="n">
         <v>357</v>
@@ -1411,7 +1412,7 @@
         <v>13843</v>
       </c>
       <c r="D6" t="n">
-        <v>13843</v>
+        <v>16095</v>
       </c>
       <c r="E6" t="n">
         <v>490</v>
@@ -1518,7 +1519,7 @@
         <v>15543</v>
       </c>
       <c r="D7" t="n">
-        <v>15543</v>
+        <v>20989</v>
       </c>
       <c r="E7" t="n">
         <v>918</v>
@@ -1625,7 +1626,7 @@
         <v>17464</v>
       </c>
       <c r="D8" t="n">
-        <v>17464</v>
+        <v>27758</v>
       </c>
       <c r="E8" t="n">
         <v>1360</v>
@@ -1732,7 +1733,7 @@
         <v>19681</v>
       </c>
       <c r="D9" t="n">
-        <v>19681</v>
+        <v>36872</v>
       </c>
       <c r="E9" t="n">
         <v>1795</v>
@@ -1839,7 +1840,7 @@
         <v>20863</v>
       </c>
       <c r="D10" t="n">
-        <v>20863</v>
+        <v>44462</v>
       </c>
       <c r="E10" t="n">
         <v>2122</v>
@@ -1946,7 +1947,7 @@
         <v>22267</v>
       </c>
       <c r="D11" t="n">
-        <v>22267</v>
+        <v>53780</v>
       </c>
       <c r="E11" t="n">
         <v>2476</v>
@@ -2053,7 +2054,7 @@
         <v>25224</v>
       </c>
       <c r="D12" t="n">
-        <v>25224</v>
+        <v>70367</v>
       </c>
       <c r="E12" t="n">
         <v>3047</v>
@@ -2160,7 +2161,7 @@
         <v>25815</v>
       </c>
       <c r="D13" t="n">
-        <v>25815</v>
+        <v>72711</v>
       </c>
       <c r="E13" t="n">
         <v>3428</v>
@@ -2267,7 +2268,7 @@
         <v>26406</v>
       </c>
       <c r="D14" t="n">
-        <v>26406</v>
+        <v>75055</v>
       </c>
       <c r="E14" t="n">
         <v>3809</v>
@@ -2374,7 +2375,7 @@
         <v>26997</v>
       </c>
       <c r="D15" t="n">
-        <v>26997</v>
+        <v>77400</v>
       </c>
       <c r="E15" t="n">
         <v>4189</v>
@@ -2481,7 +2482,7 @@
         <v>27588</v>
       </c>
       <c r="D16" t="n">
-        <v>27588</v>
+        <v>79744</v>
       </c>
       <c r="E16" t="n">
         <v>4570</v>
@@ -2588,7 +2589,7 @@
         <v>28180</v>
       </c>
       <c r="D17" t="n">
-        <v>28180</v>
+        <v>82088</v>
       </c>
       <c r="E17" t="n">
         <v>4951</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>97</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29321.0090532</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5368.5300385</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2128.1295</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>97</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41070.4047257</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7675.217151999999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3254.046</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>97</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>73913.2937236</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13488.430375</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6939.036</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>73913.2937236</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13488.430375</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6939.036</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1760</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>97</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>65903.73605559999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12351.231625</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6939.036</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>268752.3400308</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46786.74212</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30309.0269</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2520</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>232457.6552268</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42005.86652</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30309.0269</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1620</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>244555.8834948</v>
+      </c>
+      <c r="U9" t="n">
+        <v>43599.49172</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30309.0269</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1920</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>97</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>256654.1117628</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45193.11692</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30309.0269</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2220</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>268752.3400308</v>
+      </c>
+      <c r="U11" t="n">
+        <v>46786.74212</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30309.0269</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2520</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>97</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>268752.3400308</v>
+      </c>
+      <c r="U12" t="n">
+        <v>46786.74212</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30309.0269</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3540</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2460</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>97</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>398617.616764</v>
+      </c>
+      <c r="U13" t="n">
+        <v>69942.43370200001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51113.589</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3700</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2580</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>97</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>398617.616764</v>
+      </c>
+      <c r="U14" t="n">
+        <v>69942.43370200001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51113.589</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3780</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2640</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>97</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>962451.9346866</v>
+      </c>
+      <c r="U15" t="n">
+        <v>172921.240928</v>
+      </c>
+      <c r="V15" t="n">
+        <v>142773.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4100</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>97</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5014501.2495138</v>
+      </c>
+      <c r="U16" t="n">
+        <v>890995.66047</v>
+      </c>
+      <c r="V16" t="n">
+        <v>722731.4375999999</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4740</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3360</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>97</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8198572.2865629</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1457665.92713</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1174405.8832</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5780</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>97</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>218922.6423959</v>
+      </c>
+      <c r="U18" t="n">
+        <v>42853.45010449999</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27559.7096</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2180</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>97</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>296637.6082602</v>
+      </c>
+      <c r="U19" t="n">
+        <v>55421.161759</v>
+      </c>
+      <c r="V19" t="n">
+        <v>37255.844</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3540</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1860</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>97</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>383399.9378692</v>
+      </c>
+      <c r="U20" t="n">
+        <v>69185.835332</v>
+      </c>
+      <c r="V20" t="n">
+        <v>51045.2543</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3620</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2220</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>97</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>443880.111678</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81362.608146</v>
+      </c>
+      <c r="V21" t="n">
+        <v>58622.5605</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3780</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2640</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>97</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>510769.63754</v>
+      </c>
+      <c r="U22" t="n">
+        <v>98811.86963599999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>71631.80960000001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4100</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>97</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>648317.2056601001</v>
+      </c>
+      <c r="U23" t="n">
+        <v>134445.67139</v>
+      </c>
+      <c r="V23" t="n">
+        <v>97973.5128</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4740</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3360</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/97.xlsx
+++ b/opm_hero_property/heroes/97.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29321.0090532</v>
+        <v>5149378.2495138</v>
       </c>
       <c r="U2" t="n">
-        <v>5368.5300385</v>
+        <v>914723.66047</v>
       </c>
       <c r="V2" t="n">
-        <v>2128.1295</v>
+        <v>744571.4375999999</v>
       </c>
       <c r="W2" t="n">
-        <v>2100</v>
+        <v>4740</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1700</v>
+        <v>3360</v>
       </c>
       <c r="AA2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11683480.2082</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1472509.7647568</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15758406.2729568</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41070.4047257</v>
+        <v>648317.2056601001</v>
       </c>
       <c r="U3" t="n">
-        <v>7675.217151999999</v>
+        <v>134445.67139</v>
       </c>
       <c r="V3" t="n">
-        <v>3254.046</v>
+        <v>97973.5128</v>
       </c>
       <c r="W3" t="n">
-        <v>2100</v>
+        <v>4740</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1700</v>
+        <v>3360</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1325196.2961</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>166544.4907511</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2155489.0368511</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>73913.2937236</v>
+        <v>7379.6196</v>
       </c>
       <c r="U4" t="n">
-        <v>13488.430375</v>
+        <v>1626.6667</v>
       </c>
       <c r="V4" t="n">
-        <v>6939.036</v>
+        <v>627.1295</v>
       </c>
       <c r="W4" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1700</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19486.764455</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23943.614455</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>73913.2937236</v>
+        <v>19476.0121</v>
       </c>
       <c r="U5" t="n">
-        <v>13488.430375</v>
+        <v>4039.7984</v>
       </c>
       <c r="V5" t="n">
-        <v>6939.036</v>
+        <v>1931.046</v>
       </c>
       <c r="W5" t="n">
-        <v>2180</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1760</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49395.38556000001</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61224.18556000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>65903.73605559999</v>
+        <v>54636.7508</v>
       </c>
       <c r="U6" t="n">
-        <v>12351.231625</v>
+        <v>10433.325</v>
       </c>
       <c r="V6" t="n">
-        <v>6939.036</v>
+        <v>6139.036</v>
       </c>
       <c r="W6" t="n">
-        <v>2180</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>860</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>118491.8503</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9526.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>166861.1503</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>268752.3400308</v>
+        <v>54636.7508</v>
       </c>
       <c r="U7" t="n">
-        <v>46786.74212</v>
+        <v>10433.325</v>
       </c>
       <c r="V7" t="n">
-        <v>30309.0269</v>
+        <v>6139.036</v>
       </c>
       <c r="W7" t="n">
-        <v>3620</v>
+        <v>1380</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2520</v>
+        <v>660</v>
       </c>
       <c r="AA7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>118491.8503</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>167044.1503</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>232457.6552268</v>
+        <v>54903.7360556</v>
       </c>
       <c r="U8" t="n">
-        <v>42005.86652</v>
+        <v>10471.231625</v>
       </c>
       <c r="V8" t="n">
-        <v>30309.0269</v>
+        <v>6139.036</v>
       </c>
       <c r="W8" t="n">
-        <v>3620</v>
+        <v>1380</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1620</v>
+        <v>660</v>
       </c>
       <c r="AA8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>118491.8503</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>528.5409681000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9709.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>167572.6912681</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>244555.8834948</v>
+        <v>230458.8324</v>
       </c>
       <c r="U9" t="n">
-        <v>43599.49172</v>
+        <v>42003.504</v>
       </c>
       <c r="V9" t="n">
-        <v>30309.0269</v>
+        <v>30436.0269</v>
       </c>
       <c r="W9" t="n">
         <v>3620</v>
@@ -7594,7 +7802,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1920</v>
+        <v>1620</v>
       </c>
       <c r="AA9" t="n">
         <v>2160</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>539345.514675</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>708112.164675</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>256654.1117628</v>
+        <v>231668.6552268</v>
       </c>
       <c r="U10" t="n">
-        <v>45193.11692</v>
+        <v>42162.86652</v>
       </c>
       <c r="V10" t="n">
-        <v>30309.0269</v>
+        <v>30436.0269</v>
       </c>
       <c r="W10" t="n">
         <v>3620</v>
@@ -7705,7 +7937,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2220</v>
+        <v>1620</v>
       </c>
       <c r="AA10" t="n">
         <v>2160</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>539345.514675</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2309.4242148</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>710421.5888898</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>268752.3400308</v>
+        <v>243766.8834948</v>
       </c>
       <c r="U11" t="n">
-        <v>46786.74212</v>
+        <v>43756.49172</v>
       </c>
       <c r="V11" t="n">
-        <v>30309.0269</v>
+        <v>30436.0269</v>
       </c>
       <c r="W11" t="n">
         <v>3620</v>
@@ -7816,7 +8072,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2520</v>
+        <v>1920</v>
       </c>
       <c r="AA11" t="n">
         <v>2160</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>539345.514675</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>25658.6663628</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>733770.8310377999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>268752.3400308</v>
+        <v>255865.1117628</v>
       </c>
       <c r="U12" t="n">
-        <v>46786.74212</v>
+        <v>45350.11692</v>
       </c>
       <c r="V12" t="n">
-        <v>30309.0269</v>
+        <v>30436.0269</v>
       </c>
       <c r="W12" t="n">
-        <v>3540</v>
+        <v>3620</v>
       </c>
       <c r="X12" t="n">
         <v>1440</v>
@@ -7927,7 +8207,7 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2460</v>
+        <v>2220</v>
       </c>
       <c r="AA12" t="n">
         <v>2160</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>539345.514675</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>49007.9085108</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>757120.0731858</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>398617.616764</v>
+        <v>267963.3400308</v>
       </c>
       <c r="U13" t="n">
-        <v>69942.43370200001</v>
+        <v>46943.74212</v>
       </c>
       <c r="V13" t="n">
-        <v>51113.589</v>
+        <v>30436.0269</v>
       </c>
       <c r="W13" t="n">
-        <v>3700</v>
+        <v>3620</v>
       </c>
       <c r="X13" t="n">
         <v>1440</v>
@@ -8038,7 +8342,7 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2580</v>
+        <v>2520</v>
       </c>
       <c r="AA13" t="n">
         <v>2160</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>539345.514675</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>72357.1506588</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39338.4</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>780469.3153338</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>398617.616764</v>
+        <v>267963.3400308</v>
       </c>
       <c r="U14" t="n">
-        <v>69942.43370200001</v>
+        <v>46943.74212</v>
       </c>
       <c r="V14" t="n">
-        <v>51113.589</v>
+        <v>30436.0269</v>
       </c>
       <c r="W14" t="n">
-        <v>3780</v>
+        <v>3540</v>
       </c>
       <c r="X14" t="n">
         <v>1440</v>
@@ -8149,7 +8477,7 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2640</v>
+        <v>2460</v>
       </c>
       <c r="AA14" t="n">
         <v>2160</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>539345.514675</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>72357.1506588</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>39155.4</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>780286.3153338</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>962451.9346866</v>
+        <v>401117.616764</v>
       </c>
       <c r="U15" t="n">
-        <v>172921.240928</v>
+        <v>70750.43370200001</v>
       </c>
       <c r="V15" t="n">
-        <v>142773.2</v>
+        <v>51887.589</v>
       </c>
       <c r="W15" t="n">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="X15" t="n">
         <v>1440</v>
@@ -8260,7 +8612,7 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2880</v>
+        <v>2580</v>
       </c>
       <c r="AA15" t="n">
         <v>2160</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>834023.7067100001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>107974.1393478</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111894</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1201419.2460578</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5014501.2495138</v>
+        <v>401117.616764</v>
       </c>
       <c r="U16" t="n">
-        <v>890995.66047</v>
+        <v>70750.43370200001</v>
       </c>
       <c r="V16" t="n">
-        <v>722731.4375999999</v>
+        <v>51887.589</v>
       </c>
       <c r="W16" t="n">
-        <v>4740</v>
+        <v>3780</v>
       </c>
       <c r="X16" t="n">
         <v>1440</v>
@@ -8371,7 +8747,7 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>3360</v>
+        <v>2640</v>
       </c>
       <c r="AA16" t="n">
         <v>2160</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>834023.7067100001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>107974.1393478</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>112077</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1201602.2460578</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8198572.2865629</v>
+        <v>999946.9346866</v>
       </c>
       <c r="U17" t="n">
-        <v>1457665.92713</v>
+        <v>179778.240928</v>
       </c>
       <c r="V17" t="n">
-        <v>1174405.8832</v>
+        <v>149406.2</v>
       </c>
       <c r="W17" t="n">
-        <v>5780</v>
+        <v>4100</v>
       </c>
       <c r="X17" t="n">
         <v>1440</v>
@@ -8482,7 +8882,7 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>4140</v>
+        <v>2880</v>
       </c>
       <c r="AA17" t="n">
         <v>2160</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1920933.99924</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>238233.6978498</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685015</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3114187.4470898</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>218922.6423959</v>
+        <v>5149378.2495138</v>
       </c>
       <c r="U18" t="n">
-        <v>42853.45010449999</v>
+        <v>914723.66047</v>
       </c>
       <c r="V18" t="n">
-        <v>27559.7096</v>
+        <v>744571.4375999999</v>
       </c>
       <c r="W18" t="n">
-        <v>2180</v>
+        <v>4740</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>860</v>
+        <v>3360</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11683480.2082</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1472509.7647568</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007105.4</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15758406.2729568</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>296637.6082602</v>
+        <v>8508290.286562901</v>
       </c>
       <c r="U19" t="n">
-        <v>55421.161759</v>
+        <v>1511698.92713</v>
       </c>
       <c r="V19" t="n">
-        <v>37255.844</v>
+        <v>1223637.8832</v>
       </c>
       <c r="W19" t="n">
-        <v>3540</v>
+        <v>5780</v>
       </c>
       <c r="X19" t="n">
         <v>1440</v>
@@ -8704,7 +9152,7 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1860</v>
+        <v>4140</v>
       </c>
       <c r="AA19" t="n">
         <v>2160</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18952972.8495</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2394126.4626599</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470479</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>25993458.7121599</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>383399.9378692</v>
+        <v>207922.6423959</v>
       </c>
       <c r="U20" t="n">
-        <v>69185.835332</v>
+        <v>40973.45010449999</v>
       </c>
       <c r="V20" t="n">
-        <v>51045.2543</v>
+        <v>26759.7096</v>
       </c>
       <c r="W20" t="n">
-        <v>3620</v>
+        <v>1380</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2220</v>
+        <v>660</v>
       </c>
       <c r="AA20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>566396.8461099999</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2490.23220695</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>33359.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>649625.77831695</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>443880.111678</v>
+        <v>273537.6082602</v>
       </c>
       <c r="U21" t="n">
-        <v>81362.608146</v>
+        <v>51473.161759</v>
       </c>
       <c r="V21" t="n">
-        <v>58622.5605</v>
+        <v>35575.844</v>
       </c>
       <c r="W21" t="n">
-        <v>3780</v>
+        <v>1860</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2640</v>
+        <v>1320</v>
       </c>
       <c r="AA21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AB21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>674063.3568200001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>32040.4705773</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>66719.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>840874.5273973</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>510769.63754</v>
+        <v>383399.9378692</v>
       </c>
       <c r="U22" t="n">
-        <v>98811.86963599999</v>
+        <v>69185.835332</v>
       </c>
       <c r="V22" t="n">
-        <v>71631.80960000001</v>
+        <v>51045.2543</v>
       </c>
       <c r="W22" t="n">
-        <v>4100</v>
+        <v>3620</v>
       </c>
       <c r="X22" t="n">
         <v>1440</v>
@@ -9037,7 +9557,7 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2880</v>
+        <v>2220</v>
       </c>
       <c r="AA22" t="n">
         <v>2160</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>857809.4627850001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>75233.65109999999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>96891.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1167624.413885</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>648317.2056601001</v>
+        <v>443880.111678</v>
       </c>
       <c r="U23" t="n">
-        <v>134445.67139</v>
+        <v>81362.608146</v>
       </c>
       <c r="V23" t="n">
-        <v>97973.5128</v>
+        <v>58622.5605</v>
       </c>
       <c r="W23" t="n">
-        <v>4740</v>
+        <v>3780</v>
       </c>
       <c r="X23" t="n">
         <v>1440</v>
@@ -9148,7 +9692,7 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>3360</v>
+        <v>2640</v>
       </c>
       <c r="AA23" t="n">
         <v>2160</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>937739.539955</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>120485.4408054</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>153419</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1356314.8307604</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>97</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>510769.63754</v>
+      </c>
+      <c r="U24" t="n">
+        <v>98811.86963599999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>71631.80960000001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4100</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1063767.91848</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>135385.0747484</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>262506.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1619139.4432284</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>97</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>648317.2056601001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>134445.67139</v>
+      </c>
+      <c r="V25" t="n">
+        <v>97973.5128</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4740</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3360</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1325196.2961</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>166544.4907511</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>480680.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2155489.0368511</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/97.xlsx
+++ b/opm_hero_property/heroes/97.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,25962;31,11457;41,2512</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,17220;41,3776</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,17220;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3134;31,1381;41,359</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2076;41,540</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2076;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>25962.405</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>11457.1233</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2512.518</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>17220.8295</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>3776.678</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>17220.8295</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>3134.292</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1381.1805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>359.7852</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>2076.0075</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>540.8092</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2076.0075</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,25964;31,11458;41,2512</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,17223;41,3777</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,17223;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3136;31,1382;41,360</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2078;41,541</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2078;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>25964.904</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>11458.8837</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2512.9632</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>17223.4755</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>3777.3472</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>17223.4755</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>3136.791</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1382.9409</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>360.2304</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>2078.6535</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>541.4784000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>2078.6535</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,27661;31,12711;41,2938</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,19105;41,4416</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,19105;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3319;31,1517;41,407</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2281;41,612</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2281;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>27661.1665806</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>12711.15224493</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2938.43278188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>19105.71963195</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4416.889527480001</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>19105.71963195</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>3319.5496887</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1517.78738841</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>407.24955564</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>2281.33687215</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>612.15499244</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>2281.33687215</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,29584;31,14129;41,3420</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,21237;41,5141</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,21237;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3526;31,1670;41,460</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2510;41,692</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,2510;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>29584.797123</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>14129.12905605</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3420.68554086</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>21237.03447075</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>5141.785184060001</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>21237.03447075</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>3526.5061335</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1670.22578385</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>460.46266758</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>2510.46206775</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>692.14199718</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2510.46206775</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53076;31,11307;41,4389</t>
+          <t>21,31845;31,15797;41,3987</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53076;31,11307;41,4389</t>
+          <t>21,0;31,23744;41,5994</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26538;31,5653;41,2194</t>
+          <t>21,0;31,23744;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6282;31,1323;41,575</t>
+          <t>21,3769;31,1849;41,523</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6282;31,1323;41,575</t>
+          <t>21,0;31,2779;41,786</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3141;31,661;41,287</t>
+          <t>21,0;31,2779;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53076</v>
+        <v>31845.9415638</v>
       </c>
       <c r="O6" t="n">
-        <v>11307</v>
+        <v>15797.67751611</v>
       </c>
       <c r="P6" t="n">
-        <v>4389</v>
+        <v>3987.8935167</v>
       </c>
       <c r="Q6" t="n">
-        <v>53076</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11307</v>
+        <v>23744.97540765</v>
       </c>
       <c r="S6" t="n">
-        <v>4389</v>
+        <v>5994.3808207</v>
       </c>
       <c r="T6" t="n">
-        <v>26538</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5653</v>
+        <v>23744.97540765</v>
       </c>
       <c r="V6" t="n">
-        <v>2194</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6282</v>
+        <v>3769.645385100001</v>
       </c>
       <c r="X6" t="n">
-        <v>1323</v>
+        <v>1849.54989807</v>
       </c>
       <c r="Y6" t="n">
-        <v>575</v>
+        <v>523.0700751000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6282</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1323</v>
+        <v>2779.99831305</v>
       </c>
       <c r="AB6" t="n">
-        <v>575</v>
+        <v>786.2499871000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>3141</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>661</v>
+        <v>2779.99831305</v>
       </c>
       <c r="AE6" t="n">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59188;31,12682;41,5693</t>
+          <t>21,35513;31,17719;41,5173</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59188;31,12682;41,5693</t>
+          <t>21,0;31,26633;41,7775</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29594;31,6341;41,2846</t>
+          <t>21,0;31,26633;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6946;31,1473;41,720</t>
+          <t>21,4167;31,2058;41,654</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6946;31,1473;41,720</t>
+          <t>21,0;31,3093;41,984</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3473;31,736;41,360</t>
+          <t>21,0;31,3093;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59188</v>
+        <v>35513.2545222</v>
       </c>
       <c r="O7" t="n">
-        <v>12682</v>
+        <v>17719.38932511</v>
       </c>
       <c r="P7" t="n">
-        <v>5693</v>
+        <v>5173.03543554</v>
       </c>
       <c r="Q7" t="n">
-        <v>59188</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12682</v>
+        <v>26633.43794265</v>
       </c>
       <c r="S7" t="n">
-        <v>5693</v>
+        <v>7775.82056034</v>
       </c>
       <c r="T7" t="n">
-        <v>29594</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6341</v>
+        <v>26633.43794265</v>
       </c>
       <c r="V7" t="n">
-        <v>2846</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>6946</v>
+        <v>4167.9725619</v>
       </c>
       <c r="X7" t="n">
-        <v>1473</v>
+        <v>2058.35143107</v>
       </c>
       <c r="Y7" t="n">
-        <v>720</v>
+        <v>654.6645616200001</v>
       </c>
       <c r="Z7" t="n">
-        <v>6946</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1473</v>
+        <v>3093.84110805</v>
       </c>
       <c r="AB7" t="n">
-        <v>720</v>
+        <v>984.0555360200001</v>
       </c>
       <c r="AC7" t="n">
-        <v>3473</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>736</v>
+        <v>3093.84110805</v>
       </c>
       <c r="AE7" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67089;31,14235;41,7497</t>
+          <t>21,40253;31,19889;41,6811</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,67089;31,14235;41,7497</t>
+          <t>21,0;31,29895;41,10239</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,33544;31,7117;41,3748</t>
+          <t>21,0;31,29895;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7801;31,1641;41,920</t>
+          <t>21,4680;31,2292;41,836</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7801;31,1641;41,920</t>
+          <t>21,0;31,3446;41,1257</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3900;31,820;41,460</t>
+          <t>21,0;31,3446;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>67089</v>
+        <v>40253.8338846</v>
       </c>
       <c r="O8" t="n">
-        <v>14235</v>
+        <v>19889.51828328</v>
       </c>
       <c r="P8" t="n">
-        <v>7497</v>
+        <v>6811.806341880001</v>
       </c>
       <c r="Q8" t="n">
-        <v>67089</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14235</v>
+        <v>29895.2882172</v>
       </c>
       <c r="S8" t="n">
-        <v>7497</v>
+        <v>10239.13028748</v>
       </c>
       <c r="T8" t="n">
-        <v>33544</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7117</v>
+        <v>29895.2882172</v>
       </c>
       <c r="V8" t="n">
-        <v>3748</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7801</v>
+        <v>4680.7853967</v>
       </c>
       <c r="X8" t="n">
-        <v>1641</v>
+        <v>2292.89177736</v>
       </c>
       <c r="Y8" t="n">
-        <v>920</v>
+        <v>836.25063564</v>
       </c>
       <c r="Z8" t="n">
-        <v>7801</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1641</v>
+        <v>3446.3710764</v>
       </c>
       <c r="AB8" t="n">
-        <v>920</v>
+        <v>1257.00567244</v>
       </c>
       <c r="AC8" t="n">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>820</v>
+        <v>3446.3710764</v>
       </c>
       <c r="AE8" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,77247;31,16027;41,9925</t>
+          <t>21,46348;31,22392;41,9017</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,77247;31,16027;41,9925</t>
+          <t>21,0;31,33657;41,13554</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,38623;31,8013;41,4962</t>
+          <t>21,0;31,33657;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8895;31,1833;41,1188</t>
+          <t>21,5337;31,2562;41,1080</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8895;31,1833;41,1188</t>
+          <t>21,0;31,3851;41,1623</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4447;31,916;41,594</t>
+          <t>21,0;31,3851;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>77247</v>
+        <v>46348.255233</v>
       </c>
       <c r="O9" t="n">
-        <v>16027</v>
+        <v>22392.58547337</v>
       </c>
       <c r="P9" t="n">
-        <v>9925</v>
+        <v>9017.677189919999</v>
       </c>
       <c r="Q9" t="n">
-        <v>77247</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16027</v>
+        <v>33657.56712255</v>
       </c>
       <c r="S9" t="n">
-        <v>9925</v>
+        <v>13554.87326032</v>
       </c>
       <c r="T9" t="n">
-        <v>38623</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>8013</v>
+        <v>33657.56712255</v>
       </c>
       <c r="V9" t="n">
-        <v>4962</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8895</v>
+        <v>5337.5502285</v>
       </c>
       <c r="X9" t="n">
-        <v>1833</v>
+        <v>2562.12244869</v>
       </c>
       <c r="Y9" t="n">
-        <v>1188</v>
+        <v>1080.12080976</v>
       </c>
       <c r="Z9" t="n">
-        <v>8895</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1833</v>
+        <v>3851.04294435</v>
       </c>
       <c r="AB9" t="n">
-        <v>1188</v>
+        <v>1623.57782096</v>
       </c>
       <c r="AC9" t="n">
-        <v>4447</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>916</v>
+        <v>3851.04294435</v>
       </c>
       <c r="AE9" t="n">
-        <v>594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,84862;31,16982;41,11946</t>
+          <t>21,50917;31,23727;41,10854</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,84862;31,16982;41,11946</t>
+          <t>21,0;31,35663;41,16316</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,42431;31,8491;41,5973</t>
+          <t>21,0;31,35663;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9716;31,1936;41,1412</t>
+          <t>21,5830;31,2705;41,1283</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9716;31,1936;41,1412</t>
+          <t>21,0;31,4066;41,1928</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4858;31,968;41,706</t>
+          <t>21,0;31,4066;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>84862</v>
+        <v>50917.8096462</v>
       </c>
       <c r="O10" t="n">
-        <v>16982</v>
+        <v>23727.02210151</v>
       </c>
       <c r="P10" t="n">
-        <v>11946</v>
+        <v>10854.68346732</v>
       </c>
       <c r="Q10" t="n">
-        <v>84862</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16982</v>
+        <v>35663.31542865</v>
       </c>
       <c r="S10" t="n">
-        <v>11946</v>
+        <v>16316.15942572</v>
       </c>
       <c r="T10" t="n">
-        <v>42431</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8491</v>
+        <v>35663.31542865</v>
       </c>
       <c r="V10" t="n">
-        <v>5973</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9716</v>
+        <v>5830.0036599</v>
       </c>
       <c r="X10" t="n">
-        <v>1936</v>
+        <v>2705.58263787</v>
       </c>
       <c r="Y10" t="n">
-        <v>1412</v>
+        <v>1283.20289196</v>
       </c>
       <c r="Z10" t="n">
-        <v>9716</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1936</v>
+        <v>4066.67329005</v>
       </c>
       <c r="AB10" t="n">
-        <v>1412</v>
+        <v>1928.83956716</v>
       </c>
       <c r="AC10" t="n">
-        <v>4858</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>968</v>
+        <v>4066.67329005</v>
       </c>
       <c r="AE10" t="n">
-        <v>706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,94148;31,18116;41,14428</t>
+          <t>21,56489;31,25311;41,13109</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,94148;31,18116;41,14428</t>
+          <t>21,0;31,38045;41,19705</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,47074;31,9058;41,7214</t>
+          <t>21,0;31,38045;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10716;31,2058;41,1686</t>
+          <t>21,6429;31,2875;41,1532</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10716;31,2058;41,1686</t>
+          <t>21,0;31,4322;41,2303</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5358;31,1029;41,843</t>
+          <t>21,0;31,4322;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>94148</v>
+        <v>56489.3719698</v>
       </c>
       <c r="O11" t="n">
-        <v>18116</v>
+        <v>25311.78587859</v>
       </c>
       <c r="P11" t="n">
-        <v>14428</v>
+        <v>13109.6837508</v>
       </c>
       <c r="Q11" t="n">
-        <v>94148</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>18116</v>
+        <v>38045.32233285</v>
       </c>
       <c r="S11" t="n">
-        <v>14428</v>
+        <v>19705.7510468</v>
       </c>
       <c r="T11" t="n">
-        <v>47074</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9058</v>
+        <v>38045.32233285</v>
       </c>
       <c r="V11" t="n">
-        <v>7214</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10716</v>
+        <v>6429.6029721</v>
       </c>
       <c r="X11" t="n">
-        <v>2058</v>
+        <v>2875.68404583</v>
       </c>
       <c r="Y11" t="n">
-        <v>1686</v>
+        <v>1532.2867524</v>
       </c>
       <c r="Z11" t="n">
-        <v>10716</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2058</v>
+        <v>4322.347185449999</v>
       </c>
       <c r="AB11" t="n">
-        <v>1686</v>
+        <v>2303.2486404</v>
       </c>
       <c r="AC11" t="n">
-        <v>5358</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1029</v>
+        <v>4322.347185449999</v>
       </c>
       <c r="AE11" t="n">
-        <v>843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,111255;31,20505;41,18846</t>
+          <t>21,66753;31,28649;41,17123</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,111255;31,20505;41,18846</t>
+          <t>21,0;31,43061;41,25738</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,55627;31,10252;41,9423</t>
+          <t>21,0;31,43061;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12554;31,2314;41,2173</t>
+          <t>21,7532;31,3233;41,1975</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12554;31,2314;41,2173</t>
+          <t>21,0;31,4860;41,2968</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6277;31,1157;41,1086</t>
+          <t>21,0;31,4860;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>111255</v>
+        <v>66753.35882040001</v>
       </c>
       <c r="O12" t="n">
-        <v>20505</v>
+        <v>28649.27689848</v>
       </c>
       <c r="P12" t="n">
-        <v>18846</v>
+        <v>17123.25667062</v>
       </c>
       <c r="Q12" t="n">
-        <v>111255</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20505</v>
+        <v>43061.79656519999</v>
       </c>
       <c r="S12" t="n">
-        <v>18846</v>
+        <v>25738.73172502</v>
       </c>
       <c r="T12" t="n">
-        <v>55627</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>10252</v>
+        <v>43061.79656519999</v>
       </c>
       <c r="V12" t="n">
-        <v>9423</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12554</v>
+        <v>7532.6680758</v>
       </c>
       <c r="X12" t="n">
-        <v>2314</v>
+        <v>3233.71877976</v>
       </c>
       <c r="Y12" t="n">
-        <v>2173</v>
+        <v>1975.12177686</v>
       </c>
       <c r="Z12" t="n">
-        <v>12554</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2314</v>
+        <v>4860.497552399999</v>
       </c>
       <c r="AB12" t="n">
-        <v>2173</v>
+        <v>2968.89374006</v>
       </c>
       <c r="AC12" t="n">
-        <v>6277</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1157</v>
+        <v>4860.497552399999</v>
       </c>
       <c r="AE12" t="n">
-        <v>1086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,113904;31,20984;41,19472</t>
+          <t>21,68342;31,29318;41,17691</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,113904;31,20984;41,19472</t>
+          <t>21,0;31,44068;41,26593</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,56952;31,10492;41,9736</t>
+          <t>21,0;31,44068;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12848;31,2367;41,2244</t>
+          <t>21,7708;31,3307;41,2039</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12848;31,2367;41,2244</t>
+          <t>21,0;31,4971;41,3065</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6424;31,1183;41,1122</t>
+          <t>21,0;31,4971;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>113904</v>
+        <v>68342.7167682</v>
       </c>
       <c r="O13" t="n">
-        <v>20984</v>
+        <v>29318.86686255</v>
       </c>
       <c r="P13" t="n">
-        <v>19472</v>
+        <v>17691.95924646</v>
       </c>
       <c r="Q13" t="n">
-        <v>113904</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20984</v>
+        <v>44068.23546824999</v>
       </c>
       <c r="S13" t="n">
-        <v>19472</v>
+        <v>26593.57396166</v>
       </c>
       <c r="T13" t="n">
-        <v>56952</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10492</v>
+        <v>44068.23546824999</v>
       </c>
       <c r="V13" t="n">
-        <v>9736</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>12848</v>
+        <v>7708.965828900001</v>
       </c>
       <c r="X13" t="n">
-        <v>2367</v>
+        <v>3307.820524350001</v>
       </c>
       <c r="Y13" t="n">
-        <v>2244</v>
+        <v>2039.22378438</v>
       </c>
       <c r="Z13" t="n">
-        <v>12848</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2367</v>
+        <v>4971.87747525</v>
       </c>
       <c r="AB13" t="n">
-        <v>2244</v>
+        <v>3065.24832998</v>
       </c>
       <c r="AC13" t="n">
-        <v>6424</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1183</v>
+        <v>4971.87747525</v>
       </c>
       <c r="AE13" t="n">
-        <v>1122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,116553;31,21464;41,20098</t>
+          <t>21,69932;31,29988;41,18260</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,116553;31,21464;41,20098</t>
+          <t>21,0;31,45074;41,27448</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,58276;31,10732;41,10049</t>
+          <t>21,0;31,45074;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13142;31,2420;41,2314</t>
+          <t>21,7885;31,3381;41,2103</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13142;31,2420;41,2314</t>
+          <t>21,0;31,5083;41,3161</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6571;31,1210;41,1157</t>
+          <t>21,0;31,5083;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>116553</v>
+        <v>69932.074716</v>
       </c>
       <c r="O14" t="n">
-        <v>21464</v>
+        <v>29988.50572662</v>
       </c>
       <c r="P14" t="n">
-        <v>20098</v>
+        <v>18260.6618223</v>
       </c>
       <c r="Q14" t="n">
-        <v>116553</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21464</v>
+        <v>45074.7478713</v>
       </c>
       <c r="S14" t="n">
-        <v>20098</v>
+        <v>27448.4161983</v>
       </c>
       <c r="T14" t="n">
-        <v>58276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10732</v>
+        <v>45074.7478713</v>
       </c>
       <c r="V14" t="n">
-        <v>10049</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13142</v>
+        <v>7885.263582000001</v>
       </c>
       <c r="X14" t="n">
-        <v>2420</v>
+        <v>3381.97116894</v>
       </c>
       <c r="Y14" t="n">
-        <v>2314</v>
+        <v>2103.3257919</v>
       </c>
       <c r="Z14" t="n">
-        <v>13142</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2420</v>
+        <v>5083.3308981</v>
       </c>
       <c r="AB14" t="n">
-        <v>2314</v>
+        <v>3161.6029199</v>
       </c>
       <c r="AC14" t="n">
-        <v>6571</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1210</v>
+        <v>5083.3308981</v>
       </c>
       <c r="AE14" t="n">
-        <v>1157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,119202;31,21943;41,20724</t>
+          <t>21,71521;31,30658;41,18829</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,119202;31,21943;41,20724</t>
+          <t>21,0;31,46081;41,28303</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,59601;31,10971;41,10362</t>
+          <t>21,0;31,46081;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13435;31,2473;41,2385</t>
+          <t>21,8061;31,3456;41,2167</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13435;31,2473;41,2385</t>
+          <t>21,0;31,5194;41,3257</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6717;31,1236;41,1192</t>
+          <t>21,0;31,5194;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>119202</v>
+        <v>71521.4116638</v>
       </c>
       <c r="O15" t="n">
-        <v>21943</v>
+        <v>30658.09569069</v>
       </c>
       <c r="P15" t="n">
-        <v>20724</v>
+        <v>18829.606164</v>
       </c>
       <c r="Q15" t="n">
-        <v>119202</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21943</v>
+        <v>46081.18677435</v>
       </c>
       <c r="S15" t="n">
-        <v>20724</v>
+        <v>28303.621844</v>
       </c>
       <c r="T15" t="n">
-        <v>59601</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10971</v>
+        <v>46081.18677435</v>
       </c>
       <c r="V15" t="n">
-        <v>10362</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13435</v>
+        <v>8061.540335100001</v>
       </c>
       <c r="X15" t="n">
-        <v>2473</v>
+        <v>3456.07291353</v>
       </c>
       <c r="Y15" t="n">
-        <v>2385</v>
+        <v>2167.454292</v>
       </c>
       <c r="Z15" t="n">
-        <v>13435</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2473</v>
+        <v>5194.71082095</v>
       </c>
       <c r="AB15" t="n">
-        <v>2385</v>
+        <v>3257.997332</v>
       </c>
       <c r="AC15" t="n">
-        <v>6717</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1236</v>
+        <v>5194.71082095</v>
       </c>
       <c r="AE15" t="n">
-        <v>1192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,121851;31,22422;41,21350</t>
+          <t>21,73110;31,31327;41,19398</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,121851;31,22422;41,21350</t>
+          <t>21,0;31,47087;41,29158</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,60925;31,11211;41,10675</t>
+          <t>21,0;31,47087;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13729;31,2526;41,2456</t>
+          <t>21,8237;31,3530;41,2231</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,13729;31,2526;41,2456</t>
+          <t>21,0;31,5306;41,3354</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6864;31,1263;41,1228</t>
+          <t>21,0;31,5306;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>121851</v>
+        <v>73110.7696116</v>
       </c>
       <c r="O16" t="n">
-        <v>22422</v>
+        <v>31327.73455476</v>
       </c>
       <c r="P16" t="n">
-        <v>21350</v>
+        <v>19398.30873984</v>
       </c>
       <c r="Q16" t="n">
-        <v>121851</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22422</v>
+        <v>47087.6991774</v>
       </c>
       <c r="S16" t="n">
-        <v>21350</v>
+        <v>29158.46408064</v>
       </c>
       <c r="T16" t="n">
-        <v>60925</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>11211</v>
+        <v>47087.6991774</v>
       </c>
       <c r="V16" t="n">
-        <v>10675</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>13729</v>
+        <v>8237.8380882</v>
       </c>
       <c r="X16" t="n">
-        <v>2526</v>
+        <v>3530.22355812</v>
       </c>
       <c r="Y16" t="n">
-        <v>2456</v>
+        <v>2231.55629952</v>
       </c>
       <c r="Z16" t="n">
-        <v>13729</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2526</v>
+        <v>5306.1642438</v>
       </c>
       <c r="AB16" t="n">
-        <v>2456</v>
+        <v>3354.35192192</v>
       </c>
       <c r="AC16" t="n">
-        <v>6864</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1263</v>
+        <v>5306.1642438</v>
       </c>
       <c r="AE16" t="n">
-        <v>1228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,124500;31,22902;41,21976</t>
+          <t>21,74700;31,31998;41,19967</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,124500;31,22902;41,21976</t>
+          <t>21,0;31,48095;41,30013</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,62250;31,11451;41,10988</t>
+          <t>21,0;31,48095;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14023;31,2579;41,2526</t>
+          <t>21,8414;31,3604;41,2295</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14023;31,2579;41,2526</t>
+          <t>21,0;31,5417;41,3450</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7011;31,1289;41,1263</t>
+          <t>21,0;31,5417;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>124500</v>
+        <v>74700.1275594</v>
       </c>
       <c r="O17" t="n">
-        <v>22902</v>
+        <v>31998.4521186</v>
       </c>
       <c r="P17" t="n">
-        <v>21976</v>
+        <v>19967.01131568</v>
       </c>
       <c r="Q17" t="n">
-        <v>124500</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>22902</v>
+        <v>48095.832939</v>
       </c>
       <c r="S17" t="n">
-        <v>21976</v>
+        <v>30013.30631728</v>
       </c>
       <c r="T17" t="n">
-        <v>62250</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>11451</v>
+        <v>48095.832939</v>
       </c>
       <c r="V17" t="n">
-        <v>10988</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14023</v>
+        <v>8414.135841300002</v>
       </c>
       <c r="X17" t="n">
-        <v>2579</v>
+        <v>3604.4453082</v>
       </c>
       <c r="Y17" t="n">
-        <v>2526</v>
+        <v>2295.65830704</v>
       </c>
       <c r="Z17" t="n">
-        <v>14023</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2579</v>
+        <v>5417.724542999999</v>
       </c>
       <c r="AB17" t="n">
-        <v>2526</v>
+        <v>3450.70651184</v>
       </c>
       <c r="AC17" t="n">
-        <v>7011</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1289</v>
+        <v>5417.724542999999</v>
       </c>
       <c r="AE17" t="n">
-        <v>1263</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,46 +5107,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4183</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1795</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1121</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2225</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1659</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -5155,52 +5155,52 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2156</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -5209,39 +5209,39 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4183;31,1795;41,1121;22,24;32,56;42,36</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2225;41,1389;22,0;32,84;42,54</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1659;41,0;22,0;32,84;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,2156;31,1000;41,441;22,21;32,49;42,31</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1239;41,547;22,0;32,73;42,47</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,924;41,0;22,0;32,71;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,46 +5250,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8366</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2243</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4450</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2779</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -5298,52 +5298,52 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2480</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1376</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -5352,39 +5352,39 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,8366;31,3591;41,2243;22,48;32,112;42,72</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,4450;41,2779;22,0;32,168;42,109</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,3318;41,0;22,0;32,168;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,2480;31,1110;41,552;22,42;32,98;42,63</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1376;41,684;22,0;32,147;42,95</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1026;41,0;22,0;32,147;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,46 +5393,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5386</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3364</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6675</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4169</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4977</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -5441,52 +5441,52 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3029</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1615</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1204</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -5495,39 +5495,39 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,12549;31,5386;41,3364;22,72;32,168;42,109</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,6675;41,4169;22,0;32,251;42,164</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,4977;41,0;22,0;32,251;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3029;31,1303;41,744;22,63;32,147;42,95</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1615;41,923;22,0;32,220;42,143</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1204;41,0;22,0;32,218;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,46 +5536,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>16732</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7182</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4486</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8901</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>5559</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6636</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -5584,52 +5584,52 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3246</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1396</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1289</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -5638,39 +5638,39 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,16732;31,7182;41,4486;22,96;32,224;42,145</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,8901;41,5559;22,0;32,336;42,218</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,6636;41,0;22,0;32,336;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3246;31,1396;41,811;22,84;32,196;42,127</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1730;41,1005;22,0;32,294;42,191</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1289;41,0;22,0;32,294;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,46 +5679,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>20916</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8977</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5607</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11126</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6949</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>8295</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -5727,52 +5727,52 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>3478</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1494</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1852</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1095</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1381</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -5781,39 +5781,39 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,20916;31,8977;41,5607;22,120;32,280;42,182</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,11126;41,6949;22,0;32,420;42,273</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,8295;41,0;22,0;32,420;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3478;31,1494;41,883;22,105;32,244;42,159</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1852;41,1095;22,0;32,367;42,239</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1381;41,0;22,0;32,365;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,46 +5822,46 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>25099</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10773</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6729</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13351</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>8339</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>9954</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -5870,52 +5870,52 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3724</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1983</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -5924,39 +5924,39 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,25099;31,10773;41,6729;22,144;32,336;42,218</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,13351;41,8339;22,0;32,503;42,328</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,9954;41,0;22,0;32,503;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3724;31,1600;41,960;22,126;32,294;42,191</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1983;41,1190;22,0;32,441;42,287</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1478;41,0;22,0;32,441;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,46 +5965,46 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>29282</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12568</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7850</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15577</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9729</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>11613</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -6013,52 +6013,52 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>3986</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1712</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>2121</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -6067,39 +6067,39 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,29282;31,12568;41,7850;22,168;32,392;42,255</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,15577;41,9729;22,0;32,588;42,382</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,11613;41,0;22,0;32,588;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,3986;31,1712;41,1043;22,147;32,343;42,223</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2121;41,1293;22,0;32,514;42,334</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1581;41,0;22,0;32,512;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,46 +6108,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>33465</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>14364</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8972</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>17802</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11119</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>13272</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -6156,52 +6156,52 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>4427</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1183</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2355</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1466</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -6210,39 +6210,39 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,33465;31,14364;41,8972;22,189;32,441;42,287</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,17802;41,11119;22,0;32,661;42,430</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,13272;41,0;22,0;32,659;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4427;31,1900;41,1183;22,168;32,392;42,255</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2355;41,1466;22,0;32,588;42,382</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1756;41,0;22,0;32,588;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,46 +6251,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>37648</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>16159</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10093</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>20027</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>12509</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>14931</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -6299,52 +6299,52 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>4794</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2057</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1297</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1607</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -6353,39 +6353,39 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,37648;31,16159;41,10093;22,201;32,468;42,305</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,20027;41,12509;22,0;32,703;42,457</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,14931;41,0;22,0;32,701;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,4794;31,2057;41,1297;22,189;32,441;42,287</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2550;41,1607;22,0;32,661;42,430</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,1901;41,0;22,0;32,659;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,46 +6394,46 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>41832</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>17955</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>11215</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22253</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>13899</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>16590</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -6442,52 +6442,52 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5168</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2218</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2749</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AF11" t="n">
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -6496,39 +6496,39 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,41832;31,17955;41,11215;22,210;32,489;42,318</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,22253;41,13899;22,0;32,735;42,478</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,16590;41,0;22,0;32,735;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,5168;31,2218;41,1414;22,210;32,489;42,318</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2749;41,1752;22,0;32,735;42,478</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
+          <t>21,0;31,2049;41,0;22,0;32,735;42,0</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,6 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>30</v>
       </c>
@@ -6886,8 +6885,6 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
         <v>11683480.2082</v>
       </c>
@@ -6964,7 +6961,6 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>30</v>
       </c>
@@ -7021,8 +7017,6 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
         <v>1325196.2961</v>
       </c>
@@ -7099,7 +7093,6 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>-1</v>
       </c>
@@ -7156,8 +7149,6 @@
       <c r="AI4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
         <v>19486.764455</v>
       </c>
@@ -7234,7 +7225,6 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>-1</v>
       </c>
@@ -7291,8 +7281,6 @@
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
         <v>49395.38556000001</v>
       </c>
@@ -7369,7 +7357,6 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>-1</v>
       </c>
@@ -7426,8 +7413,6 @@
       <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
         <v>118491.8503</v>
       </c>
@@ -7504,7 +7489,6 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>-1</v>
       </c>
@@ -7561,8 +7545,6 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
         <v>118491.8503</v>
       </c>
@@ -7639,7 +7621,6 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
@@ -7696,8 +7677,6 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
         <v>118491.8503</v>
       </c>
@@ -7774,7 +7753,6 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>-1</v>
       </c>
@@ -7831,8 +7809,6 @@
       <c r="AI9" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
         <v>539345.514675</v>
       </c>
@@ -7909,7 +7885,6 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -7966,8 +7941,6 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
         <v>539345.514675</v>
       </c>
@@ -8044,7 +8017,6 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>10</v>
       </c>
@@ -8101,8 +8073,6 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
         <v>539345.514675</v>
       </c>
@@ -8179,7 +8149,6 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>20</v>
       </c>
@@ -8236,8 +8205,6 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
         <v>539345.514675</v>
       </c>
@@ -8314,7 +8281,6 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>30</v>
       </c>
@@ -8371,8 +8337,6 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
         <v>539345.514675</v>
       </c>
@@ -8449,7 +8413,6 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>30</v>
       </c>
@@ -8506,8 +8469,6 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
         <v>539345.514675</v>
       </c>
@@ -8584,7 +8545,6 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>30</v>
       </c>
@@ -8641,8 +8601,6 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
         <v>834023.7067100001</v>
       </c>
@@ -8719,7 +8677,6 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>30</v>
       </c>
@@ -8776,8 +8733,6 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
         <v>834023.7067100001</v>
       </c>
@@ -8854,7 +8809,6 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>30</v>
       </c>
@@ -8911,8 +8865,6 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
         <v>1920933.99924</v>
       </c>
@@ -8989,7 +8941,6 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>30</v>
       </c>
@@ -9046,8 +8997,6 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
         <v>11683480.2082</v>
       </c>
@@ -9124,7 +9073,6 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>30</v>
       </c>
@@ -9181,8 +9129,6 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
         <v>18952972.8495</v>
       </c>
@@ -9259,7 +9205,6 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -9316,8 +9261,6 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
         <v>566396.8461099999</v>
       </c>
@@ -9394,7 +9337,6 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>10</v>
       </c>
@@ -9451,8 +9393,6 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
         <v>674063.3568200001</v>
       </c>
@@ -9529,7 +9469,6 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>20</v>
       </c>
@@ -9586,8 +9525,6 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
         <v>857809.4627850001</v>
       </c>
@@ -9664,7 +9601,6 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>30</v>
       </c>
@@ -9721,8 +9657,6 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
         <v>937739.539955</v>
       </c>
@@ -9799,7 +9733,6 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>30</v>
       </c>
@@ -9856,8 +9789,6 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
         <v>1063767.91848</v>
       </c>
@@ -9934,7 +9865,6 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>30</v>
       </c>
@@ -9991,8 +9921,6 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
         <v>1325196.2961</v>
       </c>

--- a/opm_hero_property/heroes/97.xlsx
+++ b/opm_hero_property/heroes/97.xlsx
@@ -6829,6 +6829,7 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>30</v>
       </c>
@@ -6838,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5149378.2495138</v>
+        <v>5265910.3770732</v>
       </c>
       <c r="U2" t="n">
-        <v>914723.66047</v>
+        <v>964677.1125886</v>
       </c>
       <c r="V2" t="n">
-        <v>744571.4375999999</v>
+        <v>775753.4489156799</v>
       </c>
       <c r="W2" t="n">
         <v>4740</v>
@@ -6885,6 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,70348;41,43912</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,64685;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11683480.2082</v>
       </c>
@@ -6904,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>640507.5122429</v>
       </c>
       <c r="AS2" t="n">
-        <v>15758406.2729568</v>
+        <v>16398913.7851997</v>
       </c>
     </row>
     <row r="3">
@@ -6961,6 +6972,7 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>30</v>
       </c>
@@ -6970,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>648317.2056601001</v>
+        <v>661899.3415014001</v>
       </c>
       <c r="U3" t="n">
-        <v>134445.67139</v>
+        <v>140268.1166982</v>
       </c>
       <c r="V3" t="n">
-        <v>97973.5128</v>
+        <v>101683.17110704</v>
       </c>
       <c r="W3" t="n">
         <v>4740</v>
@@ -7017,6 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,8166;41,5202</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,7466;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1325196.2961</v>
       </c>
@@ -7036,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>75087.54373336</v>
       </c>
       <c r="AS3" t="n">
-        <v>2155489.0368511</v>
+        <v>2230576.58058446</v>
       </c>
     </row>
     <row r="4">
@@ -7093,6 +7115,7 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>-1</v>
       </c>
@@ -7149,6 +7172,8 @@
       <c r="AI4" t="n">
         <v>0</v>
       </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
         <v>19486.764455</v>
       </c>
@@ -7225,6 +7250,7 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>-1</v>
       </c>
@@ -7281,6 +7307,8 @@
       <c r="AI5" t="n">
         <v>0</v>
       </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
         <v>49395.38556000001</v>
       </c>
@@ -7357,6 +7385,7 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>-1</v>
       </c>
@@ -7413,6 +7442,8 @@
       <c r="AI6" t="n">
         <v>0</v>
       </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
         <v>118491.8503</v>
       </c>
@@ -7489,6 +7520,7 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>-1</v>
       </c>
@@ -7498,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>54636.7508</v>
+        <v>58911.28860192</v>
       </c>
       <c r="U7" t="n">
-        <v>10433.325</v>
+        <v>12270.78042</v>
       </c>
       <c r="V7" t="n">
-        <v>6139.036</v>
+        <v>7277.0749296</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7545,6 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,2288;41,1414</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,1722;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>118491.8503</v>
       </c>
@@ -7564,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23496.70404512</v>
       </c>
       <c r="AS7" t="n">
-        <v>167044.1503</v>
+        <v>190540.85434512</v>
       </c>
     </row>
     <row r="8">
@@ -7621,6 +7663,7 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
@@ -7630,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>54903.7360556</v>
+        <v>63452.81165944</v>
       </c>
       <c r="U8" t="n">
-        <v>10471.231625</v>
+        <v>14147.142465</v>
       </c>
       <c r="V8" t="n">
-        <v>6139.036</v>
+        <v>8416.113859200001</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7677,6 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,4577;41,2830</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,3445;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>118491.8503</v>
       </c>
@@ -7696,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>47006.05809024</v>
       </c>
       <c r="AS8" t="n">
-        <v>167572.6912681</v>
+        <v>214578.74935834</v>
       </c>
     </row>
     <row r="9">
@@ -7753,6 +7806,7 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>-1</v>
       </c>
@@ -7809,6 +7863,8 @@
       <c r="AI9" t="n">
         <v>0</v>
       </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
         <v>539345.514675</v>
       </c>
@@ -7885,6 +7941,7 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -7894,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>231668.6552268</v>
+        <v>236266.45162456</v>
       </c>
       <c r="U10" t="n">
-        <v>42162.86652</v>
+        <v>44136.3525424</v>
       </c>
       <c r="V10" t="n">
-        <v>30436.0269</v>
+        <v>31648.29059684</v>
       </c>
       <c r="W10" t="n">
         <v>3620</v>
@@ -7941,6 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,2492;41,1525</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,1926;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>539345.514675</v>
       </c>
@@ -7960,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>25185.36620915</v>
       </c>
       <c r="AS10" t="n">
-        <v>710421.5888898</v>
+        <v>735606.9550989501</v>
       </c>
     </row>
     <row r="11">
@@ -8017,6 +8084,7 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>10</v>
       </c>
@@ -8026,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>243766.8834948</v>
+        <v>266756.8654836</v>
       </c>
       <c r="U11" t="n">
-        <v>43756.49172</v>
+        <v>53625.921832</v>
       </c>
       <c r="V11" t="n">
-        <v>30436.0269</v>
+        <v>36504.41558958</v>
       </c>
       <c r="W11" t="n">
         <v>3620</v>
@@ -8073,6 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,12464;41,7641</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,9633;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>539345.514675</v>
       </c>
@@ -8092,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>125982.284726685</v>
       </c>
       <c r="AS11" t="n">
-        <v>733770.8310377999</v>
+        <v>859753.115764485</v>
       </c>
     </row>
     <row r="12">
@@ -8149,6 +8227,7 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>20</v>
       </c>
@@ -8158,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>255865.1117628</v>
+        <v>278855.0937516</v>
       </c>
       <c r="U12" t="n">
-        <v>45350.11692</v>
+        <v>55219.547032</v>
       </c>
       <c r="V12" t="n">
-        <v>30436.0269</v>
+        <v>36504.41558958</v>
       </c>
       <c r="W12" t="n">
         <v>3620</v>
@@ -8205,6 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,12464;41,7641</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,9633;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>539345.514675</v>
       </c>
@@ -8224,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>125982.284726685</v>
       </c>
       <c r="AS12" t="n">
-        <v>757120.0731858</v>
+        <v>883102.357912485</v>
       </c>
     </row>
     <row r="13">
@@ -8281,6 +8370,7 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>30</v>
       </c>
@@ -8290,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>267963.3400308</v>
+        <v>313424.8085112</v>
       </c>
       <c r="U13" t="n">
-        <v>46943.74212</v>
+        <v>66457.3075656</v>
       </c>
       <c r="V13" t="n">
-        <v>30436.0269</v>
+        <v>42457.18955542</v>
       </c>
       <c r="W13" t="n">
         <v>3620</v>
@@ -8337,6 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,24595;41,15110</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,18932;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>539345.514675</v>
       </c>
@@ -8356,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>249226.755323705</v>
       </c>
       <c r="AS13" t="n">
-        <v>780469.3153338</v>
+        <v>1029696.070657505</v>
       </c>
     </row>
     <row r="14">
@@ -8413,6 +8513,7 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>30</v>
       </c>
@@ -8422,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>267963.3400308</v>
+        <v>290953.3220196</v>
       </c>
       <c r="U14" t="n">
-        <v>46943.74212</v>
+        <v>56813.172232</v>
       </c>
       <c r="V14" t="n">
-        <v>30436.0269</v>
+        <v>36504.41558958</v>
       </c>
       <c r="W14" t="n">
         <v>3540</v>
@@ -8469,6 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,12464;41,7641</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,9633;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>539345.514675</v>
       </c>
@@ -8488,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>125982.284726685</v>
       </c>
       <c r="AS14" t="n">
-        <v>780286.3153338</v>
+        <v>906268.6000604851</v>
       </c>
     </row>
     <row r="15">
@@ -8545,6 +8656,7 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>30</v>
       </c>
@@ -8554,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>401117.616764</v>
+        <v>429945.5614488</v>
       </c>
       <c r="U15" t="n">
-        <v>70750.43370200001</v>
+        <v>83126.18086424001</v>
       </c>
       <c r="V15" t="n">
-        <v>51887.589</v>
+        <v>59545.8704402</v>
       </c>
       <c r="W15" t="n">
         <v>3700</v>
@@ -8601,6 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,15750;41,9737</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,12353;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>834023.7067100001</v>
       </c>
@@ -8620,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>158255.718385406</v>
       </c>
       <c r="AS15" t="n">
-        <v>1201419.2460578</v>
+        <v>1359674.964443206</v>
       </c>
     </row>
     <row r="16">
@@ -8677,6 +8799,7 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>30</v>
       </c>
@@ -8686,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>401117.616764</v>
+        <v>434750.0522296</v>
       </c>
       <c r="U16" t="n">
-        <v>70750.43370200001</v>
+        <v>85188.30539128001</v>
       </c>
       <c r="V16" t="n">
-        <v>51887.589</v>
+        <v>60824.5925195</v>
       </c>
       <c r="W16" t="n">
         <v>3780</v>
@@ -8733,6 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,18381;41,11357</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,14417;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>834023.7067100001</v>
       </c>
@@ -8752,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>184641.520358757</v>
       </c>
       <c r="AS16" t="n">
-        <v>1201602.2460578</v>
+        <v>1386243.766416557</v>
       </c>
     </row>
     <row r="17">
@@ -8809,6 +8942,7 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>30</v>
       </c>
@@ -8818,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>999946.9346866</v>
+        <v>1044257.62956382</v>
       </c>
       <c r="U17" t="n">
-        <v>179778.240928</v>
+        <v>198799.40103616</v>
       </c>
       <c r="V17" t="n">
-        <v>149406.2</v>
+        <v>161460.78664</v>
       </c>
       <c r="W17" t="n">
         <v>4100</v>
@@ -8865,6 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,24782;41,15737</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,20231;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1920933.99924</v>
       </c>
@@ -8884,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>244870.572803524</v>
       </c>
       <c r="AS17" t="n">
-        <v>3114187.4470898</v>
+        <v>3359058.019893324</v>
       </c>
     </row>
     <row r="18">
@@ -8941,6 +9085,7 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>30</v>
       </c>
@@ -8950,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5149378.2495138</v>
+        <v>5265910.3770732</v>
       </c>
       <c r="U18" t="n">
-        <v>914723.66047</v>
+        <v>964677.1125886</v>
       </c>
       <c r="V18" t="n">
-        <v>744571.4375999999</v>
+        <v>775753.4489156799</v>
       </c>
       <c r="W18" t="n">
         <v>4740</v>
@@ -8997,6 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,70348;41,43912</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,64685;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11683480.2082</v>
       </c>
@@ -9016,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>640507.5122429</v>
       </c>
       <c r="AS18" t="n">
-        <v>15758406.2729568</v>
+        <v>16398913.7851997</v>
       </c>
     </row>
     <row r="19">
@@ -9073,6 +9228,7 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>30</v>
       </c>
@@ -9082,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8508290.286562901</v>
+        <v>8624822.4141223</v>
       </c>
       <c r="U19" t="n">
-        <v>1511698.92713</v>
+        <v>1561652.3792486</v>
       </c>
       <c r="V19" t="n">
-        <v>1223637.8832</v>
+        <v>1254819.89451568</v>
       </c>
       <c r="W19" t="n">
         <v>5780</v>
@@ -9129,6 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,70348;41,43912</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,64685;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18952972.8495</v>
       </c>
@@ -9148,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>640507.5122429</v>
       </c>
       <c r="AS19" t="n">
-        <v>25993458.7121599</v>
+        <v>26633966.2244028</v>
       </c>
     </row>
     <row r="20">
@@ -9205,6 +9371,7 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -9214,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>207922.6423959</v>
+        <v>210455.99100467</v>
       </c>
       <c r="U20" t="n">
-        <v>40973.45010449999</v>
+        <v>42148.48712491</v>
       </c>
       <c r="V20" t="n">
-        <v>26759.7096</v>
+        <v>27275.86509976</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9261,6 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,1499;41,660</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,1177;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>566396.8461099999</v>
       </c>
@@ -9280,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13608.998173219</v>
       </c>
       <c r="AS20" t="n">
-        <v>649625.77831695</v>
+        <v>663234.776490169</v>
       </c>
     </row>
     <row r="21">
@@ -9337,6 +9514,7 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>10</v>
       </c>
@@ -9346,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>273537.6082602</v>
+        <v>276908.64238712</v>
       </c>
       <c r="U21" t="n">
-        <v>51473.161759</v>
+        <v>52982.13008624</v>
       </c>
       <c r="V21" t="n">
-        <v>35575.844</v>
+        <v>36325.2598172</v>
       </c>
       <c r="W21" t="n">
         <v>1860</v>
@@ -9393,6 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,1974;41,981</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,1624;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>674063.3568200001</v>
       </c>
@@ -9412,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>18092.056533776</v>
       </c>
       <c r="AS21" t="n">
-        <v>840874.5273973</v>
+        <v>858966.583931076</v>
       </c>
     </row>
     <row r="22">
@@ -9469,6 +9657,7 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>20</v>
       </c>
@@ -9478,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>383399.9378692</v>
+        <v>389674.260317</v>
       </c>
       <c r="U22" t="n">
-        <v>69185.835332</v>
+        <v>71877.94898096001</v>
       </c>
       <c r="V22" t="n">
-        <v>51045.2543</v>
+        <v>52624.69424337</v>
       </c>
       <c r="W22" t="n">
         <v>3620</v>
@@ -9525,6 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,3654;41,2141</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,3173;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>857809.4627850001</v>
       </c>
@@ -9544,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>33931.6863000015</v>
       </c>
       <c r="AS22" t="n">
-        <v>1167624.413885</v>
+        <v>1201556.100185002</v>
       </c>
     </row>
     <row r="23">
@@ -9601,6 +9800,7 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>30</v>
       </c>
@@ -9610,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>443880.111678</v>
+        <v>452116.9979078</v>
       </c>
       <c r="U23" t="n">
-        <v>81362.608146</v>
+        <v>84901.67287276</v>
       </c>
       <c r="V23" t="n">
-        <v>58622.5605</v>
+        <v>60752.22969915</v>
       </c>
       <c r="W23" t="n">
         <v>3780</v>
@@ -9657,6 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,4858;41,2920</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,4308;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>937739.539955</v>
       </c>
@@ -9676,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>44902.0307395565</v>
       </c>
       <c r="AS23" t="n">
-        <v>1356314.8307604</v>
+        <v>1401216.861499957</v>
       </c>
     </row>
     <row r="24">
@@ -9733,6 +9943,7 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>30</v>
       </c>
@@ -9742,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>510769.63754</v>
+        <v>520661.671156</v>
       </c>
       <c r="U24" t="n">
-        <v>98811.86963599999</v>
+        <v>103058.74036304</v>
       </c>
       <c r="V24" t="n">
-        <v>71631.80960000001</v>
+        <v>74254.10124480001</v>
       </c>
       <c r="W24" t="n">
         <v>4100</v>
@@ -9789,6 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,5875;41,3622</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,5276;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1063767.91848</v>
       </c>
@@ -9808,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>54273.618590176</v>
       </c>
       <c r="AS24" t="n">
-        <v>1619139.4432284</v>
+        <v>1673413.061818576</v>
       </c>
     </row>
     <row r="25">
@@ -9865,6 +10086,7 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>30</v>
       </c>
@@ -9874,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>648317.2056601001</v>
+        <v>661899.3415014001</v>
       </c>
       <c r="U25" t="n">
-        <v>134445.67139</v>
+        <v>140268.1166982</v>
       </c>
       <c r="V25" t="n">
-        <v>97973.5128</v>
+        <v>101683.17110704</v>
       </c>
       <c r="W25" t="n">
         <v>4740</v>
@@ -9921,6 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,8166;41,5202</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,7466;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1325196.2961</v>
       </c>
@@ -9940,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>75087.54373336</v>
       </c>
       <c r="AS25" t="n">
-        <v>2155489.0368511</v>
+        <v>2230576.58058446</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/97.xlsx
+++ b/opm_hero_property/heroes/97.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>97</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5265910.3770732</v>
+        <v>6119625.2915852</v>
       </c>
       <c r="U2" t="n">
-        <v>964677.1125886</v>
+        <v>1121724.3185086</v>
       </c>
       <c r="V2" t="n">
-        <v>775753.4489156799</v>
+        <v>926446.92392368</v>
       </c>
       <c r="W2" t="n">
         <v>4740</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11683480.2082</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1472509.7647568</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2941717.816656</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1869215.7</v>
+      </c>
+      <c r="AU2" t="n">
         <v>640507.5122429</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16398913.7851997</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19202741.9018557</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>97</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>661899.3415014001</v>
+        <v>758060.1923254001</v>
       </c>
       <c r="U3" t="n">
-        <v>140268.1166982</v>
+        <v>157957.9597382</v>
       </c>
       <c r="V3" t="n">
-        <v>101683.17110704</v>
+        <v>119008.41213104</v>
       </c>
       <c r="W3" t="n">
         <v>4740</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1325196.2961</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>166544.4907511</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>586630.3036880001</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>211891.2</v>
+      </c>
+      <c r="AU3" t="n">
         <v>75087.54373336</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2230576.58058446</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2548417.48427246</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>97</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7379.6196</v>
+        <v>7829.6196</v>
       </c>
       <c r="U4" t="n">
-        <v>1626.6667</v>
+        <v>1708.6667</v>
       </c>
       <c r="V4" t="n">
-        <v>627.1295</v>
+        <v>706.1295</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19486.764455</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23943.614455</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1470.05</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25413.664455</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>97</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19476.0121</v>
+        <v>32692.0121</v>
       </c>
       <c r="U5" t="n">
-        <v>4039.7984</v>
+        <v>6470.7984</v>
       </c>
       <c r="V5" t="n">
-        <v>1931.046</v>
+        <v>4263.046</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49395.38556000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61224.18556000001</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43398.9</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>104623.08556</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>97</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>54636.7508</v>
+        <v>111294.7508</v>
       </c>
       <c r="U6" t="n">
-        <v>10433.325</v>
+        <v>20855.325</v>
       </c>
       <c r="V6" t="n">
-        <v>6139.036</v>
+        <v>16140.036</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>118491.8503</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9526.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>166861.1503</v>
+      <c r="AT6" t="n">
+        <v>186075.55</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>352936.7003</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>97</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>58911.28860192</v>
+        <v>115569.28860192</v>
       </c>
       <c r="U7" t="n">
-        <v>12270.78042</v>
+        <v>22692.78042</v>
       </c>
       <c r="V7" t="n">
-        <v>7277.0749296</v>
+        <v>17278.0749296</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>118491.8503</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>186075.55</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23496.70404512</v>
       </c>
-      <c r="AS7" t="n">
-        <v>190540.85434512</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>376616.40434512</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>97</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>63452.81165944</v>
+        <v>120110.81165944</v>
       </c>
       <c r="U8" t="n">
-        <v>14147.142465</v>
+        <v>24569.142465</v>
       </c>
       <c r="V8" t="n">
-        <v>8416.113859200001</v>
+        <v>18417.1138592</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>118491.8503</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>528.5409681000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9709.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>186075.55</v>
+      </c>
+      <c r="AU8" t="n">
         <v>47006.05809024</v>
       </c>
-      <c r="AS8" t="n">
-        <v>214578.74935834</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>400654.29935834</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>97</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>230458.8324</v>
+        <v>401736.150724</v>
       </c>
       <c r="U9" t="n">
-        <v>42003.504</v>
+        <v>71687.22904000001</v>
       </c>
       <c r="V9" t="n">
-        <v>30436.0269</v>
+        <v>58178.537169</v>
       </c>
       <c r="W9" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>539345.514675</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>708112.164675</v>
+        <v>44723.60514675001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>436001.65</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1243846.61982175</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>97</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>236266.45162456</v>
+        <v>464476.5178076341</v>
       </c>
       <c r="U10" t="n">
-        <v>44136.3525424</v>
+        <v>83199.1683753664</v>
       </c>
       <c r="V10" t="n">
-        <v>31648.29059684</v>
+        <v>65957.03528142512</v>
       </c>
       <c r="W10" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1620</v>
+        <v>1630</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>539345.514675</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2309.4242148</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44723.60514675001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>436001.65</v>
+      </c>
+      <c r="AU10" t="n">
         <v>25185.36620915</v>
       </c>
-      <c r="AS10" t="n">
-        <v>735606.9550989501</v>
+      <c r="AV10" t="n">
+        <v>253751.9222201567</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1430745.732465857</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>97</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>266756.8654836</v>
+        <v>559690.4791161369</v>
       </c>
       <c r="U11" t="n">
-        <v>53625.921832</v>
+        <v>101741.050159392</v>
       </c>
       <c r="V11" t="n">
-        <v>36504.41558958</v>
+        <v>78026.57052403445</v>
       </c>
       <c r="W11" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="AA11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB11" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>539345.514675</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>25658.6663628</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44723.60514675001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>436001.65</v>
+      </c>
+      <c r="AU11" t="n">
         <v>125982.284726685</v>
       </c>
-      <c r="AS11" t="n">
-        <v>859753.115764485</v>
+      <c r="AV11" t="n">
+        <v>422413.5348179048</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1723553.50572914</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>97</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>278855.0937516</v>
+        <v>654326.6487291876</v>
       </c>
       <c r="U12" t="n">
-        <v>55219.547032</v>
+        <v>112676.816785512</v>
       </c>
       <c r="V12" t="n">
-        <v>36504.41558958</v>
+        <v>88985.68074464037</v>
       </c>
       <c r="W12" t="n">
-        <v>3620</v>
+        <v>3640</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2220</v>
+        <v>2240</v>
       </c>
       <c r="AA12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AB12" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>539345.514675</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>49007.9085108</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44723.60514675001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>436001.65</v>
+      </c>
+      <c r="AU12" t="n">
         <v>125982.284726685</v>
       </c>
-      <c r="AS12" t="n">
-        <v>883102.357912485</v>
+      <c r="AV12" t="n">
+        <v>632547.1357716674</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1957036.348830902</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>97</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>313424.8085112</v>
+        <v>785694.3434987392</v>
       </c>
       <c r="U13" t="n">
-        <v>66457.3075656</v>
+        <v>136998.8342903176</v>
       </c>
       <c r="V13" t="n">
-        <v>42457.18955542</v>
+        <v>106041.9432170457</v>
       </c>
       <c r="W13" t="n">
-        <v>3620</v>
+        <v>3670</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2520</v>
+        <v>2570</v>
       </c>
       <c r="AA13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB13" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>539345.514675</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>72357.1506588</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39338.4</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44723.60514675001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>436001.65</v>
+      </c>
+      <c r="AU13" t="n">
         <v>249226.755323705</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1029696.070657505</v>
+      <c r="AV13" t="n">
+        <v>883831.5477956883</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2354914.473599943</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>97</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>290953.3220196</v>
+        <v>894034.7990800928</v>
       </c>
       <c r="U14" t="n">
-        <v>56813.172232</v>
+        <v>142009.238806528</v>
       </c>
       <c r="V14" t="n">
-        <v>36504.41558958</v>
+        <v>110173.1080791859</v>
       </c>
       <c r="W14" t="n">
-        <v>3540</v>
+        <v>3590</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="AA14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB14" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>539345.514675</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>72357.1506588</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>39155.4</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44540.60514675001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>436001.65</v>
+      </c>
+      <c r="AU14" t="n">
         <v>125982.284726685</v>
       </c>
-      <c r="AS14" t="n">
-        <v>906268.6000604851</v>
+      <c r="AV14" t="n">
+        <v>1173742.46309322</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2521397.918300455</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>97</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>429945.5614488</v>
+        <v>1422561.938294218</v>
       </c>
       <c r="U15" t="n">
-        <v>83126.18086424001</v>
+        <v>235805.7408244968</v>
       </c>
       <c r="V15" t="n">
-        <v>59545.8704402</v>
+        <v>187016.5983756686</v>
       </c>
       <c r="W15" t="n">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2580</v>
+        <v>2680</v>
       </c>
       <c r="AA15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AB15" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>834023.7067100001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>107974.1393478</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111894</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128557.9741342</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>797750.7</v>
+      </c>
+      <c r="AU15" t="n">
         <v>158255.718385406</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1359674.964443206</v>
+      <c r="AV15" t="n">
+        <v>1965847.352065935</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4139936.990643341</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>97</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>434750.0522296</v>
+        <v>1454555.712451706</v>
       </c>
       <c r="U16" t="n">
-        <v>85188.30539128001</v>
+        <v>242353.1952133781</v>
       </c>
       <c r="V16" t="n">
-        <v>60824.5925195</v>
+        <v>191747.9878131705</v>
       </c>
       <c r="W16" t="n">
-        <v>3780</v>
+        <v>3980</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2640</v>
+        <v>2840</v>
       </c>
       <c r="AA16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB16" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>834023.7067100001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>107974.1393478</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>112077</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128740.9741342</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>797750.7</v>
+      </c>
+      <c r="AU16" t="n">
         <v>184641.520358757</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1386243.766416557</v>
+      <c r="AV16" t="n">
+        <v>2045038.248798989</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4245696.689349745</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>97</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1044257.62956382</v>
+        <v>2635367.795799039</v>
       </c>
       <c r="U17" t="n">
-        <v>198799.40103616</v>
+        <v>437796.8484830516</v>
       </c>
       <c r="V17" t="n">
-        <v>161460.78664</v>
+        <v>370309.61601408</v>
       </c>
       <c r="W17" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AA17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB17" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1920933.99924</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>238233.6978498</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685015</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>761819.3599696001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1274613.45</v>
+      </c>
+      <c r="AU17" t="n">
         <v>244870.572803524</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3359058.019893324</v>
+      <c r="AV17" t="n">
+        <v>3092055.512550131</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7802531.342413056</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>97</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5265910.3770732</v>
+        <v>9281472.681737855</v>
       </c>
       <c r="U18" t="n">
-        <v>964677.1125886</v>
+        <v>1522631.388092615</v>
       </c>
       <c r="V18" t="n">
-        <v>775753.4489156799</v>
+        <v>1258929.404946674</v>
       </c>
       <c r="W18" t="n">
-        <v>4740</v>
+        <v>4940</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3360</v>
+        <v>3560</v>
       </c>
       <c r="AA18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB18" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11683480.2082</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1472509.7647568</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007105.4</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2941717.816656</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1869215.7</v>
+      </c>
+      <c r="AU18" t="n">
         <v>640507.5122429</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16398913.7851997</v>
+      <c r="AV18" t="n">
+        <v>7842280.436164572</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27045022.33802027</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>97</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8624822.4141223</v>
+        <v>15968067.25734592</v>
       </c>
       <c r="U19" t="n">
-        <v>1561652.3792486</v>
+        <v>2702768.903279942</v>
       </c>
       <c r="V19" t="n">
-        <v>1254819.89451568</v>
+        <v>2234468.926362885</v>
       </c>
       <c r="W19" t="n">
-        <v>5780</v>
+        <v>5980</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AA19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB19" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18952972.8495</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2394126.4626599</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470479</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6313301.177425</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1869215.7</v>
+      </c>
+      <c r="AU19" t="n">
         <v>640507.5122429</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26633966.2244028</v>
+      <c r="AV19" t="n">
+        <v>16140292.91473631</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47486297.01656412</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>97</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>210455.99100467</v>
+        <v>216836.99100467</v>
       </c>
       <c r="U20" t="n">
-        <v>42148.48712491</v>
+        <v>43322.48712491</v>
       </c>
       <c r="V20" t="n">
-        <v>27275.86509976</v>
+        <v>28424.86509976</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>566396.8461099999</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2490.23220695</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>33359.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21088.35</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13608.998173219</v>
       </c>
-      <c r="AS20" t="n">
-        <v>663234.776490169</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>684323.126490169</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>97</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>276908.64238712</v>
+        <v>290102.15221312</v>
       </c>
       <c r="U21" t="n">
-        <v>52982.13008624</v>
+        <v>55425.24062424</v>
       </c>
       <c r="V21" t="n">
-        <v>36325.2598172</v>
+        <v>38632.6182572</v>
       </c>
       <c r="W21" t="n">
         <v>1860</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>674063.3568200001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>32040.4705773</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>66719.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>73451.9835682</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36585.9</v>
+      </c>
+      <c r="AU21" t="n">
         <v>18092.056533776</v>
       </c>
-      <c r="AS21" t="n">
-        <v>858966.583931076</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>902284.8674992759</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>97</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>389674.260317</v>
+        <v>515397.1634891109</v>
       </c>
       <c r="U22" t="n">
-        <v>71877.94898096001</v>
+        <v>90854.78447732177</v>
       </c>
       <c r="V22" t="n">
-        <v>52624.69424337</v>
+        <v>68487.88615642508</v>
       </c>
       <c r="W22" t="n">
-        <v>3620</v>
+        <v>3670</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2220</v>
+        <v>2270</v>
       </c>
       <c r="AA22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB22" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>857809.4627850001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>75233.65109999999</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>96891.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>105461.24462785</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49418.5</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33931.6863000015</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1201556.100185002</v>
+      <c r="AV22" t="n">
+        <v>290488.0769692239</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1550032.521782075</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>97</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>452116.9979078</v>
+        <v>666821.3200096188</v>
       </c>
       <c r="U23" t="n">
-        <v>84901.67287276</v>
+        <v>121255.9875317989</v>
       </c>
       <c r="V23" t="n">
-        <v>60752.22969915</v>
+        <v>88422.27529915846</v>
       </c>
       <c r="W23" t="n">
-        <v>3780</v>
+        <v>3980</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2640</v>
+        <v>2840</v>
       </c>
       <c r="AA23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB23" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>937739.539955</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>120485.4408054</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>153419</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>172157.2907991</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90429.45000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>44902.0307395565</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1401216.861499957</v>
+      <c r="AV23" t="n">
+        <v>517884.114650136</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2028268.716949192</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>97</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>520661.671156</v>
+        <v>837747.2959638159</v>
       </c>
       <c r="U24" t="n">
-        <v>103058.74036304</v>
+        <v>157768.7882381253</v>
       </c>
       <c r="V24" t="n">
-        <v>74254.10124480001</v>
+        <v>116752.4155228704</v>
       </c>
       <c r="W24" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AA24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB24" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1063767.91848</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>135385.0747484</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>262506.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>305023.9167392</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144490.8</v>
+      </c>
+      <c r="AU24" t="n">
         <v>54273.618590176</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1673413.061818576</v>
+      <c r="AV24" t="n">
+        <v>754341.7455056094</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2614763.324063385</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>97</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>661899.3415014001</v>
+        <v>1431640.798180195</v>
       </c>
       <c r="U25" t="n">
-        <v>140268.1166982</v>
+        <v>270550.8431775103</v>
       </c>
       <c r="V25" t="n">
-        <v>101683.17110704</v>
+        <v>204387.1147050907</v>
       </c>
       <c r="W25" t="n">
-        <v>4740</v>
+        <v>4940</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3360</v>
+        <v>3560</v>
       </c>
       <c r="AA25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB25" t="n">
-        <v>720</v>
+        <v>1520</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1325196.2961</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>166544.4907511</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>480680.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>586630.3036880001</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>211891.2</v>
+      </c>
+      <c r="AU25" t="n">
         <v>75087.54373336</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2230576.58058446</v>
+      <c r="AV25" t="n">
+        <v>1943799.041386828</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4492216.525659288</v>
       </c>
     </row>
   </sheetData>
